--- a/Evaluation/stat.xlsx
+++ b/Evaluation/stat.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CF4EC1-EBD5-4CAE-866C-178199D99567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BB6F8-4A10-4B8F-AEC7-CEDC9AB4A2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
     <sheet name="en" sheetId="2" r:id="rId2"/>
     <sheet name="chart" sheetId="3" r:id="rId3"/>
     <sheet name="uz 7" sheetId="10" r:id="rId4"/>
-    <sheet name="5-fold CV last uz 8" sheetId="8" r:id="rId5"/>
-    <sheet name="en 7" sheetId="11" r:id="rId6"/>
-    <sheet name="5-fold CV last en 8" sheetId="7" r:id="rId7"/>
-    <sheet name="ru_5" sheetId="15" r:id="rId8"/>
-    <sheet name="ru_6" sheetId="14" r:id="rId9"/>
-    <sheet name="ru_7" sheetId="13" r:id="rId10"/>
-    <sheet name="5-fold CV ru 8" sheetId="12" r:id="rId11"/>
-    <sheet name="sl_5" sheetId="16" r:id="rId12"/>
-    <sheet name="sl_6" sheetId="17" r:id="rId13"/>
-    <sheet name="sl_7" sheetId="18" r:id="rId14"/>
-    <sheet name="sl_8" sheetId="19" r:id="rId15"/>
-    <sheet name="what is statistical significace" sheetId="9" r:id="rId16"/>
-    <sheet name="Summary chart" sheetId="20" r:id="rId17"/>
+    <sheet name="uz8" sheetId="21" r:id="rId5"/>
+    <sheet name="5-fold CV last uz 8" sheetId="8" r:id="rId6"/>
+    <sheet name="en 7" sheetId="11" r:id="rId7"/>
+    <sheet name="5-fold CV last en 8" sheetId="7" r:id="rId8"/>
+    <sheet name="ru_5" sheetId="15" r:id="rId9"/>
+    <sheet name="ru_6" sheetId="14" r:id="rId10"/>
+    <sheet name="ru_7" sheetId="13" r:id="rId11"/>
+    <sheet name="5-fold CV ru 8" sheetId="12" r:id="rId12"/>
+    <sheet name="sl_5" sheetId="16" r:id="rId13"/>
+    <sheet name="sl_6" sheetId="17" r:id="rId14"/>
+    <sheet name="sl_7" sheetId="18" r:id="rId15"/>
+    <sheet name="sl_8" sheetId="19" r:id="rId16"/>
+    <sheet name="what is statistical significace" sheetId="9" r:id="rId17"/>
+    <sheet name="Summary chart" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -307,6 +308,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,13 +320,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,7 +341,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -403,7 +404,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -475,7 +476,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -605,7 +606,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -735,7 +736,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -867,7 +868,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1014,7 +1015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="548169912"/>
@@ -1073,7 +1074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="548168928"/>
@@ -1125,7 +1126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1162,7 +1163,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1176,7 +1177,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1631,7 +1632,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523704808"/>
@@ -1690,7 +1691,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523704152"/>
@@ -1736,7 +1737,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1766,7 +1767,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1780,7 +1781,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2224,7 +2225,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="508587296"/>
@@ -2283,7 +2284,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="508586968"/>
@@ -2325,7 +2326,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2355,7 +2356,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4083,16 +4084,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168303</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123081</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>252097</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19878</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>358114</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4157,9 +4158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4197,7 +4198,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4303,7 +4304,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4456,7 +4457,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4812,6 +4813,841 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720CA82F-A166-4E12-85F8-C2D6B2C9830A}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>860</v>
+      </c>
+      <c r="D1">
+        <v>105</v>
+      </c>
+      <c r="E1">
+        <v>273</v>
+      </c>
+      <c r="F1">
+        <v>482</v>
+      </c>
+      <c r="G1" s="15">
+        <f>C3</f>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:I1" si="0">D3</f>
+        <v>69.524000000000001</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>49.084000000000003</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F3</f>
+        <v>22.199000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>314</v>
+      </c>
+      <c r="D2">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>134</v>
+      </c>
+      <c r="F2">
+        <v>107</v>
+      </c>
+      <c r="G2" s="15">
+        <f>C6</f>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>74.489999999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="1"/>
+        <v>48.8</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="1"/>
+        <v>20.039000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D3">
+        <v>69.524000000000001</v>
+      </c>
+      <c r="E3">
+        <v>49.084000000000003</v>
+      </c>
+      <c r="F3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="G3" s="15">
+        <f>C9</f>
+        <v>0.36</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>69.072000000000003</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>54.201999999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="2"/>
+        <v>21.632000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>862</v>
+      </c>
+      <c r="D4">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4">
+        <v>514</v>
+      </c>
+      <c r="G4" s="15">
+        <f>C12</f>
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>71.429000000000002</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>50.177999999999997</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>298</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="E5">
+        <v>122</v>
+      </c>
+      <c r="F5">
+        <v>103</v>
+      </c>
+      <c r="G5" s="15">
+        <f>C15</f>
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>72.072000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>44.033000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>22.638000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D6">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="E6">
+        <v>48.8</v>
+      </c>
+      <c r="F6">
+        <v>20.039000000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.94</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>862</v>
+      </c>
+      <c r="D7">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>238</v>
+      </c>
+      <c r="F7">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>310</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>129</v>
+      </c>
+      <c r="F8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="D9">
+        <v>69.072000000000003</v>
+      </c>
+      <c r="E9">
+        <v>54.201999999999998</v>
+      </c>
+      <c r="F9">
+        <v>21.632000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>862</v>
+      </c>
+      <c r="D10">
+        <v>105</v>
+      </c>
+      <c r="E10">
+        <v>281</v>
+      </c>
+      <c r="F10">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>330</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>141</v>
+      </c>
+      <c r="F11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D12">
+        <v>71.429000000000002</v>
+      </c>
+      <c r="E12">
+        <v>50.177999999999997</v>
+      </c>
+      <c r="F12">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>862</v>
+      </c>
+      <c r="D13">
+        <v>111</v>
+      </c>
+      <c r="E13">
+        <v>243</v>
+      </c>
+      <c r="F13">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>302</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>107</v>
+      </c>
+      <c r="F14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="11">
+        <v>72.072000000000003</v>
+      </c>
+      <c r="E15" s="11">
+        <v>44.033000000000001</v>
+      </c>
+      <c r="F15" s="11">
+        <v>22.638000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="12">
+        <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
+        <v>36.08</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>71.317399999999992</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="5"/>
+        <v>49.259400000000007</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="5"/>
+        <v>22.091600000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>860</v>
+      </c>
+      <c r="D17">
+        <v>105</v>
+      </c>
+      <c r="E17">
+        <v>273</v>
+      </c>
+      <c r="F17">
+        <v>482</v>
+      </c>
+      <c r="G17">
+        <f>C19*100</f>
+        <v>38.6</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>66.667000000000002</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>48.351999999999997</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>26.971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>332</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>132</v>
+      </c>
+      <c r="F18">
+        <v>130</v>
+      </c>
+      <c r="G18">
+        <f>C22*100</f>
+        <v>38.1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>80.611999999999995</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>48.8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>24.707999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D19">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="E19">
+        <v>48.351999999999997</v>
+      </c>
+      <c r="F19">
+        <v>26.971</v>
+      </c>
+      <c r="G19">
+        <f>C25*100</f>
+        <v>34.699999999999996</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>61.856000000000002</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>47.899000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>23.719000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>862</v>
+      </c>
+      <c r="D20">
+        <v>98</v>
+      </c>
+      <c r="E20">
+        <v>250</v>
+      </c>
+      <c r="F20">
+        <v>514</v>
+      </c>
+      <c r="G20">
+        <f>C28*100</f>
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>74.286000000000001</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>52.668999999999997</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>19.538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>328</v>
+      </c>
+      <c r="D21">
+        <v>79</v>
+      </c>
+      <c r="E21">
+        <v>122</v>
+      </c>
+      <c r="F21">
+        <v>127</v>
+      </c>
+      <c r="G21">
+        <f>C31*100</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>67.567999999999998</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>49.383000000000003</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>19.684999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D22">
+        <v>80.611999999999995</v>
+      </c>
+      <c r="E22">
+        <v>48.8</v>
+      </c>
+      <c r="F22">
+        <v>24.707999999999998</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1.77</v>
+      </c>
+      <c r="H22" s="11">
+        <v>6.54</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="J22" s="11">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>862</v>
+      </c>
+      <c r="D23">
+        <v>97</v>
+      </c>
+      <c r="E23">
+        <v>238</v>
+      </c>
+      <c r="F23">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>299</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>114</v>
+      </c>
+      <c r="F24">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D25">
+        <v>61.856000000000002</v>
+      </c>
+      <c r="E25">
+        <v>47.899000000000001</v>
+      </c>
+      <c r="F25">
+        <v>23.719000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>862</v>
+      </c>
+      <c r="D26">
+        <v>105</v>
+      </c>
+      <c r="E26">
+        <v>281</v>
+      </c>
+      <c r="F26">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>319</v>
+      </c>
+      <c r="D27">
+        <v>78</v>
+      </c>
+      <c r="E27">
+        <v>148</v>
+      </c>
+      <c r="F27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="D28">
+        <v>74.286000000000001</v>
+      </c>
+      <c r="E28">
+        <v>52.668999999999997</v>
+      </c>
+      <c r="F28">
+        <v>19.538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>862</v>
+      </c>
+      <c r="D29">
+        <v>111</v>
+      </c>
+      <c r="E29">
+        <v>243</v>
+      </c>
+      <c r="F29">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>295</v>
+      </c>
+      <c r="D30">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D31">
+        <v>67.567999999999998</v>
+      </c>
+      <c r="E31">
+        <v>49.383000000000003</v>
+      </c>
+      <c r="F31">
+        <v>19.684999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="11">
+        <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
+        <v>36.520000000000003</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>70.197800000000001</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="11"/>
+        <v>49.420599999999993</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="11"/>
+        <v>22.924199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0685251F-8998-4F5F-BBD2-01EDE0C945A2}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -5646,7 +6482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DD8B0F-90E4-46D4-A651-6B19B02DFEC5}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -6485,7 +7321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D7A4F-A28F-4954-AA7C-04AEDBDEA519}">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -7328,7 +8164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA0DD53-6C5B-40E1-9A91-C63CC614A3C8}">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -8170,7 +9006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F0088B-44AB-40FA-9899-E820DF97293C}">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -9012,7 +9848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C977221-D0D9-4562-BF56-491B22606DAC}">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -9855,7 +10691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E162C-0449-4ED3-9ABA-74E3D824EDE7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -9968,12 +10804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D88374-ECC7-4D95-BDCA-74B055DA1FBB}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10849,27 +11685,27 @@
       <c r="F14">
         <v>55</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="28" t="s">
+      <c r="V14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
@@ -11047,16 +11883,16 @@
         <v>19</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="25" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="28"/>
       <c r="O19" s="19"/>
       <c r="P19"/>
       <c r="T19" s="19"/>
@@ -11306,18 +12142,18 @@
         <v>50.4</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="25" t="s">
+      <c r="J26" s="28"/>
+      <c r="K26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="25" t="s">
+      <c r="L26" s="28"/>
+      <c r="M26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="27"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H27" s="23" t="s">
@@ -11580,15 +12416,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="V14:Y14"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="L19:N19"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12917,11 +13753,761 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F52E5A-7EFC-4699-987F-49E8F6DCC9E1}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>910</v>
+      </c>
+      <c r="D1">
+        <v>96</v>
+      </c>
+      <c r="E1">
+        <v>243</v>
+      </c>
+      <c r="F1">
+        <v>571</v>
+      </c>
+      <c r="G1" s="1">
+        <f>C3</f>
+        <v>89.8</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:I1" si="0">D3</f>
+        <v>97.917000000000002</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>96.707999999999998</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F3</f>
+        <v>85.463999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>817</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>235</v>
+      </c>
+      <c r="F2">
+        <v>488</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C6</f>
+        <v>86.1</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>99.114999999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="1"/>
+        <v>80.138000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>89.8</v>
+      </c>
+      <c r="D3">
+        <v>97.917000000000002</v>
+      </c>
+      <c r="E3">
+        <v>96.707999999999998</v>
+      </c>
+      <c r="F3">
+        <v>85.463999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C9</f>
+        <v>87.5</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>92.308000000000007</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="2"/>
+        <v>82.695999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>912</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>579</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C12</f>
+        <v>88.9</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>94.298000000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>785</v>
+      </c>
+      <c r="D5">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
+      </c>
+      <c r="F5">
+        <v>464</v>
+      </c>
+      <c r="G5" s="1">
+        <f>C15</f>
+        <v>92.2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>97.356999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>88.888999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>86.1</v>
+      </c>
+      <c r="D6">
+        <v>99.114999999999995</v>
+      </c>
+      <c r="E6">
+        <v>95</v>
+      </c>
+      <c r="F6">
+        <v>80.138000000000005</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>912</v>
+      </c>
+      <c r="D7">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>247</v>
+      </c>
+      <c r="F7">
+        <v>549</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>798</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>228</v>
+      </c>
+      <c r="F8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>87.5</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>92.308000000000007</v>
+      </c>
+      <c r="F9">
+        <v>82.695999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>912</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>228</v>
+      </c>
+      <c r="F10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>811</v>
+      </c>
+      <c r="D11">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>215</v>
+      </c>
+      <c r="F11">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>88.9</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>94.298000000000002</v>
+      </c>
+      <c r="F12">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>912</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>227</v>
+      </c>
+      <c r="F13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>841</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>221</v>
+      </c>
+      <c r="F14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>92.2</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>97.356999999999999</v>
+      </c>
+      <c r="F15">
+        <v>88.888999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:F16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="5"/>
+        <v>99.406399999999991</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="5"/>
+        <v>95.134200000000007</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="5"/>
+        <v>84.459400000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>910</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>243</v>
+      </c>
+      <c r="F17">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>854</v>
+      </c>
+      <c r="D18">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>237</v>
+      </c>
+      <c r="F18">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>93.8</v>
+      </c>
+      <c r="D19">
+        <v>98.957999999999998</v>
+      </c>
+      <c r="E19">
+        <v>97.531000000000006</v>
+      </c>
+      <c r="F19">
+        <v>91.418999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>912</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>876</v>
+      </c>
+      <c r="D21">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>216</v>
+      </c>
+      <c r="F21">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>96.1</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>98.182000000000002</v>
+      </c>
+      <c r="F22">
+        <v>94.472999999999999</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>549</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>885</v>
+      </c>
+      <c r="D24">
+        <v>114</v>
+      </c>
+      <c r="E24">
+        <v>242</v>
+      </c>
+      <c r="F24">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>98.275999999999996</v>
+      </c>
+      <c r="E25">
+        <v>97.975999999999999</v>
+      </c>
+      <c r="F25">
+        <v>96.356999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>912</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
+      <c r="F26">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>877</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>224</v>
+      </c>
+      <c r="F27">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>96.2</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>98.245999999999995</v>
+      </c>
+      <c r="F28">
+        <v>94.754999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>912</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>880</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>224</v>
+      </c>
+      <c r="F30">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>96.5</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>98.677999999999997</v>
+      </c>
+      <c r="F31">
+        <v>95.043000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:F32" si="6">AVERAGE(C19,C22,C25,C28,C31)</f>
+        <v>95.919999999999987</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="6"/>
+        <v>99.446799999999996</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="6"/>
+        <v>98.122600000000006</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="6"/>
+        <v>94.409400000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2341E-E866-43A2-911D-AC37F482C321}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13762,7 +15348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -14593,7 +16179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6981B89-5433-4A4B-84D8-726093473F0F}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -15460,7 +17046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359574D1-8941-4A11-AF6A-8BFF86B2B114}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -16293,839 +17879,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720CA82F-A166-4E12-85F8-C2D6B2C9830A}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>860</v>
-      </c>
-      <c r="D1">
-        <v>105</v>
-      </c>
-      <c r="E1">
-        <v>273</v>
-      </c>
-      <c r="F1">
-        <v>482</v>
-      </c>
-      <c r="G1" s="15">
-        <f>C3</f>
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="H1" s="1">
-        <f t="shared" ref="H1:I1" si="0">D3</f>
-        <v>69.524000000000001</v>
-      </c>
-      <c r="I1" s="1">
-        <f t="shared" si="0"/>
-        <v>49.084000000000003</v>
-      </c>
-      <c r="J1" s="1">
-        <f>F3</f>
-        <v>22.199000000000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>314</v>
-      </c>
-      <c r="D2">
-        <v>73</v>
-      </c>
-      <c r="E2">
-        <v>134</v>
-      </c>
-      <c r="F2">
-        <v>107</v>
-      </c>
-      <c r="G2" s="15">
-        <f>C6</f>
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>74.489999999999995</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="1"/>
-        <v>48.8</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" si="1"/>
-        <v>20.039000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D3">
-        <v>69.524000000000001</v>
-      </c>
-      <c r="E3">
-        <v>49.084000000000003</v>
-      </c>
-      <c r="F3">
-        <v>22.199000000000002</v>
-      </c>
-      <c r="G3" s="15">
-        <f>C9</f>
-        <v>0.36</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>69.072000000000003</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="2"/>
-        <v>54.201999999999998</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" si="2"/>
-        <v>21.632000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>862</v>
-      </c>
-      <c r="D4">
-        <v>98</v>
-      </c>
-      <c r="E4">
-        <v>250</v>
-      </c>
-      <c r="F4">
-        <v>514</v>
-      </c>
-      <c r="G4" s="15">
-        <f>C12</f>
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>71.429000000000002</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="3"/>
-        <v>50.177999999999997</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="3"/>
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>298</v>
-      </c>
-      <c r="D5">
-        <v>73</v>
-      </c>
-      <c r="E5">
-        <v>122</v>
-      </c>
-      <c r="F5">
-        <v>103</v>
-      </c>
-      <c r="G5" s="15">
-        <f>C15</f>
-        <v>0.35</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>72.072000000000003</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="4"/>
-        <v>44.033000000000001</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="4"/>
-        <v>22.638000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="D6">
-        <v>74.489999999999995</v>
-      </c>
-      <c r="E6">
-        <v>48.8</v>
-      </c>
-      <c r="F6">
-        <v>20.039000000000001</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1.3</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1.94</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>862</v>
-      </c>
-      <c r="D7">
-        <v>97</v>
-      </c>
-      <c r="E7">
-        <v>238</v>
-      </c>
-      <c r="F7">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>310</v>
-      </c>
-      <c r="D8">
-        <v>67</v>
-      </c>
-      <c r="E8">
-        <v>129</v>
-      </c>
-      <c r="F8">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="D9">
-        <v>69.072000000000003</v>
-      </c>
-      <c r="E9">
-        <v>54.201999999999998</v>
-      </c>
-      <c r="F9">
-        <v>21.632000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>862</v>
-      </c>
-      <c r="D10">
-        <v>105</v>
-      </c>
-      <c r="E10">
-        <v>281</v>
-      </c>
-      <c r="F10">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>330</v>
-      </c>
-      <c r="D11">
-        <v>75</v>
-      </c>
-      <c r="E11">
-        <v>141</v>
-      </c>
-      <c r="F11">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="D12">
-        <v>71.429000000000002</v>
-      </c>
-      <c r="E12">
-        <v>50.177999999999997</v>
-      </c>
-      <c r="F12">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>862</v>
-      </c>
-      <c r="D13">
-        <v>111</v>
-      </c>
-      <c r="E13">
-        <v>243</v>
-      </c>
-      <c r="F13">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>302</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>107</v>
-      </c>
-      <c r="F14">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D15" s="11">
-        <v>72.072000000000003</v>
-      </c>
-      <c r="E15" s="11">
-        <v>44.033000000000001</v>
-      </c>
-      <c r="F15" s="11">
-        <v>22.638000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="12">
-        <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
-        <v>36.08</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
-        <v>71.317399999999992</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="5"/>
-        <v>49.259400000000007</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="5"/>
-        <v>22.091600000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>860</v>
-      </c>
-      <c r="D17">
-        <v>105</v>
-      </c>
-      <c r="E17">
-        <v>273</v>
-      </c>
-      <c r="F17">
-        <v>482</v>
-      </c>
-      <c r="G17">
-        <f>C19*100</f>
-        <v>38.6</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:J17" si="6">D19</f>
-        <v>66.667000000000002</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
-        <v>48.351999999999997</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>26.971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>332</v>
-      </c>
-      <c r="D18">
-        <v>70</v>
-      </c>
-      <c r="E18">
-        <v>132</v>
-      </c>
-      <c r="F18">
-        <v>130</v>
-      </c>
-      <c r="G18">
-        <f>C22*100</f>
-        <v>38.1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:J18" si="7">D22</f>
-        <v>80.611999999999995</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="7"/>
-        <v>48.8</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="7"/>
-        <v>24.707999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="D19">
-        <v>66.667000000000002</v>
-      </c>
-      <c r="E19">
-        <v>48.351999999999997</v>
-      </c>
-      <c r="F19">
-        <v>26.971</v>
-      </c>
-      <c r="G19">
-        <f>C25*100</f>
-        <v>34.699999999999996</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:J19" si="8">D25</f>
-        <v>61.856000000000002</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="8"/>
-        <v>47.899000000000001</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="8"/>
-        <v>23.719000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>862</v>
-      </c>
-      <c r="D20">
-        <v>98</v>
-      </c>
-      <c r="E20">
-        <v>250</v>
-      </c>
-      <c r="F20">
-        <v>514</v>
-      </c>
-      <c r="G20">
-        <f>C28*100</f>
-        <v>37</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20:J20" si="9">D28</f>
-        <v>74.286000000000001</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="9"/>
-        <v>52.668999999999997</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="9"/>
-        <v>19.538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>328</v>
-      </c>
-      <c r="D21">
-        <v>79</v>
-      </c>
-      <c r="E21">
-        <v>122</v>
-      </c>
-      <c r="F21">
-        <v>127</v>
-      </c>
-      <c r="G21">
-        <f>C31*100</f>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ref="H21:J21" si="10">D31</f>
-        <v>67.567999999999998</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="10"/>
-        <v>49.383000000000003</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="10"/>
-        <v>19.684999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D22">
-        <v>80.611999999999995</v>
-      </c>
-      <c r="E22">
-        <v>48.8</v>
-      </c>
-      <c r="F22">
-        <v>24.707999999999998</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1.77</v>
-      </c>
-      <c r="H22" s="11">
-        <v>6.54</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="J22" s="11">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>862</v>
-      </c>
-      <c r="D23">
-        <v>97</v>
-      </c>
-      <c r="E23">
-        <v>238</v>
-      </c>
-      <c r="F23">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>299</v>
-      </c>
-      <c r="D24">
-        <v>60</v>
-      </c>
-      <c r="E24">
-        <v>114</v>
-      </c>
-      <c r="F24">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D25">
-        <v>61.856000000000002</v>
-      </c>
-      <c r="E25">
-        <v>47.899000000000001</v>
-      </c>
-      <c r="F25">
-        <v>23.719000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>862</v>
-      </c>
-      <c r="D26">
-        <v>105</v>
-      </c>
-      <c r="E26">
-        <v>281</v>
-      </c>
-      <c r="F26">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>319</v>
-      </c>
-      <c r="D27">
-        <v>78</v>
-      </c>
-      <c r="E27">
-        <v>148</v>
-      </c>
-      <c r="F27">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0.37</v>
-      </c>
-      <c r="D28">
-        <v>74.286000000000001</v>
-      </c>
-      <c r="E28">
-        <v>52.668999999999997</v>
-      </c>
-      <c r="F28">
-        <v>19.538</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>862</v>
-      </c>
-      <c r="D29">
-        <v>111</v>
-      </c>
-      <c r="E29">
-        <v>243</v>
-      </c>
-      <c r="F29">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>295</v>
-      </c>
-      <c r="D30">
-        <v>75</v>
-      </c>
-      <c r="E30">
-        <v>120</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D31">
-        <v>67.567999999999998</v>
-      </c>
-      <c r="E31">
-        <v>49.383000000000003</v>
-      </c>
-      <c r="F31">
-        <v>19.684999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="11">
-        <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
-        <v>36.520000000000003</v>
-      </c>
-      <c r="D32" s="11">
-        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
-        <v>70.197800000000001</v>
-      </c>
-      <c r="E32" s="11">
-        <f t="shared" si="11"/>
-        <v>49.420599999999993</v>
-      </c>
-      <c r="F32" s="11">
-        <f t="shared" si="11"/>
-        <v>22.924199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Evaluation/stat.xlsx
+++ b/Evaluation/stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BB6F8-4A10-4B8F-AEC7-CEDC9AB4A2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC263FEA-9E61-41E2-B9C6-DF98387BA981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
@@ -308,16 +308,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9852,7 +9852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C977221-D0D9-4562-BF56-491B22606DAC}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -10809,7 +10809,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="I1:K1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11685,27 +11685,27 @@
       <c r="F14">
         <v>55</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="25" t="s">
+      <c r="V14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
@@ -11883,16 +11883,16 @@
         <v>19</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="26" t="s">
+      <c r="J19" s="28"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="19"/>
       <c r="P19"/>
       <c r="T19" s="19"/>
@@ -12142,18 +12142,18 @@
         <v>50.4</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="26" t="s">
+      <c r="J26" s="26"/>
+      <c r="K26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="26" t="s">
+      <c r="L26" s="26"/>
+      <c r="M26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="28"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H27" s="23" t="s">
@@ -12416,15 +12416,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12435,7 +12435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A199716-0BF3-40B4-9C34-5315D9C6F674}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -13756,7 +13756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F52E5A-7EFC-4699-987F-49E8F6DCC9E1}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:F32"/>
     </sheetView>
   </sheetViews>

--- a/Evaluation/stat.xlsx
+++ b/Evaluation/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC263FEA-9E61-41E2-B9C6-DF98387BA981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC97FCA8-FA9F-4C3D-843E-73B0BD731551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="17" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="sl_6" sheetId="17" r:id="rId14"/>
     <sheet name="sl_7" sheetId="18" r:id="rId15"/>
     <sheet name="sl_8" sheetId="19" r:id="rId16"/>
-    <sheet name="what is statistical significace" sheetId="9" r:id="rId17"/>
+    <sheet name="what is statistical significane" sheetId="9" r:id="rId17"/>
     <sheet name="Summary chart" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -4817,7 +4817,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:F15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5021,18 +5021,10 @@
       <c r="F6">
         <v>20.039000000000001</v>
       </c>
-      <c r="G6" s="11">
-        <v>1.3</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1.94</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1.28</v>
-      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -5431,18 +5423,10 @@
       <c r="F22">
         <v>24.707999999999998</v>
       </c>
-      <c r="G22" s="11">
-        <v>1.77</v>
-      </c>
-      <c r="H22" s="11">
-        <v>6.54</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="J22" s="11">
-        <v>2.9</v>
-      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -5651,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0685251F-8998-4F5F-BBD2-01EDE0C945A2}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8169,7 +8153,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M26" sqref="M25:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10696,7 +10680,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10808,8 +10792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D88374-ECC7-4D95-BDCA-74B055DA1FBB}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12435,7 +12419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A199716-0BF3-40B4-9C34-5315D9C6F674}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -12925,7 +12909,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G17" sqref="G17:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13756,7 +13740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F52E5A-7EFC-4699-987F-49E8F6DCC9E1}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32:F32"/>
     </sheetView>
   </sheetViews>
@@ -14506,8 +14490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2341E-E866-43A2-911D-AC37F482C321}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14910,19 +14894,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
-        <f t="shared" ref="C16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
+        <f>AVERAGE(C3,C6,C9,C12,C15)</f>
         <v>88.899000000000001</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ref="D16" si="6">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <f t="shared" ref="D16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
         <v>99.406399999999991</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16" si="7">AVERAGE(E3,E6,E9,E12,E15)</f>
+        <f t="shared" ref="E16" si="6">AVERAGE(E3,E6,E9,E12,E15)</f>
         <v>95.134200000000007</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ref="F16" si="8">AVERAGE(F3,F6,F9,F12,F15)</f>
+        <f t="shared" ref="F16" si="7">AVERAGE(F3,F6,F9,F12,F15)</f>
         <v>84.459400000000002</v>
       </c>
       <c r="G16" s="9"/>
@@ -14952,15 +14936,15 @@
         <v>93.956000000000003</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:J17" si="9">D19</f>
+        <f t="shared" ref="H17:J17" si="8">D19</f>
         <v>98.957999999999998</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>97.531000000000006</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>91.593999999999994</v>
       </c>
     </row>
@@ -14988,15 +14972,15 @@
         <v>96.052999999999997</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18:J18" si="10">D22</f>
+        <f t="shared" ref="H18:J18" si="9">D22</f>
         <v>100</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>98.182000000000002</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>94.472999999999999</v>
       </c>
     </row>
@@ -15024,15 +15008,15 @@
         <v>97.039000000000001</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ref="H19:J19" si="11">D25</f>
+        <f t="shared" ref="H19:J19" si="10">D25</f>
         <v>98.275999999999996</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>97.975999999999999</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>96.356999999999999</v>
       </c>
     </row>
@@ -15060,15 +15044,15 @@
         <v>96.162000000000006</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:J20" si="12">D28</f>
+        <f t="shared" ref="H20:J20" si="11">D28</f>
         <v>100</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>98.245999999999995</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>94.754999999999995</v>
       </c>
     </row>
@@ -15096,15 +15080,15 @@
         <v>96.491</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:J21" si="13">D31</f>
+        <f t="shared" ref="H21:J21" si="12">D31</f>
         <v>100</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>98.677999999999997</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>95.043000000000006</v>
       </c>
     </row>
@@ -15326,19 +15310,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
-        <f t="shared" ref="C32" si="14">AVERAGE(C19,C22,C25,C28,C31)</f>
+        <f t="shared" ref="C32" si="13">AVERAGE(C19,C22,C25,C28,C31)</f>
         <v>95.940200000000004</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ref="D32" si="15">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <f t="shared" ref="D32" si="14">AVERAGE(D19,D22,D25,D28,D31)</f>
         <v>99.446799999999996</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" ref="E32" si="16">AVERAGE(E19,E22,E25,E28,E31)</f>
+        <f t="shared" ref="E32" si="15">AVERAGE(E19,E22,E25,E28,E31)</f>
         <v>98.122600000000006</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" ref="F32" si="17">AVERAGE(F19,F22,F25,F28,F31)</f>
+        <f t="shared" ref="F32" si="16">AVERAGE(F19,F22,F25,F28,F31)</f>
         <v>94.444400000000002</v>
       </c>
     </row>
@@ -15352,8 +15336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" activeCellId="4" sqref="C1 C4 C7 C10 C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17050,8 +17034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359574D1-8941-4A11-AF6A-8BFF86B2B114}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
